--- a/uploads/M2-S3-MEFIM.xlsx
+++ b/uploads/M2-S3-MEFIM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
@@ -525,15 +525,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
     <col width="16.5546875" customWidth="1" min="19" max="19"/>
+    <col width="15.109375" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -630,6 +631,7 @@
       <c r="Y1" s="3" t="n"/>
       <c r="Z1" s="3" t="n"/>
       <c r="AA1" s="3" t="n"/>
+      <c r="AB1" s="3" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="4" t="inlineStr">
@@ -765,6 +767,11 @@
       <c r="AA2" s="8" t="inlineStr">
         <is>
           <t>Retards</t>
+        </is>
+      </c>
+      <c r="AB2" s="8" t="inlineStr">
+        <is>
+          <t>Appreciations</t>
         </is>
       </c>
     </row>
@@ -796,6 +803,7 @@
       <c r="Y3" s="12" t="n"/>
       <c r="Z3" s="10" t="n"/>
       <c r="AA3" s="12" t="n"/>
+      <c r="AB3" s="12" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
@@ -909,6 +917,14 @@
           <t>2h30</t>
         </is>
       </c>
+      <c r="AB4" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Méthodologie de la recherche
+   - UE4 - Espi Inside
+   - UE SPE - Gestion de Patrimoine</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="n">
@@ -1022,6 +1038,12 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB5" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE SPE - Evaluation d'actifs Tertiaires et Industriels</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="n">
@@ -1127,12 +1149,19 @@
       </c>
       <c r="Z6" s="14" t="inlineStr">
         <is>
-          <t>28h00</t>
+          <t>30h00</t>
         </is>
       </c>
       <c r="AA6" s="15" t="inlineStr">
         <is>
           <t>3h10</t>
+        </is>
+      </c>
+      <c r="AB6" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Méthodologie de la recherche
+   - UE4 - Espi Inside</t>
         </is>
       </c>
     </row>
@@ -1248,6 +1277,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB7" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
@@ -1348,17 +1382,22 @@
       </c>
       <c r="Y8" s="15" t="inlineStr">
         <is>
-          <t>36h00</t>
+          <t>44h00</t>
         </is>
       </c>
       <c r="Z8" s="14" t="inlineStr">
         <is>
-          <t>14h00</t>
+          <t>6h00</t>
         </is>
       </c>
       <c r="AA8" s="15" t="inlineStr">
         <is>
           <t>30 minutes</t>
+        </is>
+      </c>
+      <c r="AB8" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1500,22 @@
       </c>
       <c r="Y9" s="12" t="inlineStr">
         <is>
-          <t>00h00</t>
+          <t>16h00</t>
         </is>
       </c>
       <c r="Z9" s="17" t="inlineStr">
         <is>
-          <t>28h00</t>
+          <t>16h00</t>
         </is>
       </c>
       <c r="AA9" s="12" t="inlineStr">
         <is>
           <t>10 minutes</t>
+        </is>
+      </c>
+      <c r="AB9" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
         </is>
       </c>
     </row>
@@ -1587,6 +1631,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB10" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="n">
@@ -1700,6 +1749,11 @@
           <t>1h20</t>
         </is>
       </c>
+      <c r="AB11" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="n">
@@ -1813,6 +1867,17 @@
           <t>4h00</t>
         </is>
       </c>
+      <c r="AB12" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE1 - Economie Immobilière II
+   - UE4 - Méthodologie de la recherche
+   - UE4 - Espi Inside
+   - UE SPE - Due Diligence
+   - UE SPE - Evaluation d'actifs Tertiaires et Industriels
+   - UE SPE - Gestion de Patrimoine</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="n">
@@ -1926,6 +1991,12 @@
           <t>1h30</t>
         </is>
       </c>
+      <c r="AB13" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Espi Inside</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="n">
@@ -2039,6 +2110,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB14" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="n">
@@ -2152,6 +2228,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB15" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
@@ -2265,6 +2346,12 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB16" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Espi Inside</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="n">
@@ -2378,6 +2465,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB17" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="n">
@@ -2491,6 +2583,13 @@
           <t>3h15</t>
         </is>
       </c>
+      <c r="AB18" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE SPE - Droit des sûretés et de la Transmission
+   - UE SPE - Due Diligence</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="n">
@@ -2604,6 +2703,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB19" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="13" t="n">
@@ -2717,6 +2821,12 @@
           <t>1h35</t>
         </is>
       </c>
+      <c r="AB20" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Espi Inside</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="n">
@@ -2830,6 +2940,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB21" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="n">
@@ -2935,12 +3050,19 @@
       </c>
       <c r="Z22" s="14" t="inlineStr">
         <is>
-          <t>25h30</t>
+          <t>27h30</t>
         </is>
       </c>
       <c r="AA22" s="15" t="inlineStr">
         <is>
           <t>00h00</t>
+        </is>
+      </c>
+      <c r="AB22" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Espi Inside
+   - UE SPE - Droit des sûretés et de la Transmission</t>
         </is>
       </c>
     </row>
@@ -3048,12 +3170,18 @@
       </c>
       <c r="Z23" s="17" t="inlineStr">
         <is>
-          <t>50h00</t>
+          <t>52h00</t>
         </is>
       </c>
       <c r="AA23" s="12" t="inlineStr">
         <is>
           <t>40 minutes</t>
+        </is>
+      </c>
+      <c r="AB23" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Espi Inside</t>
         </is>
       </c>
     </row>
@@ -3169,6 +3297,13 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB24" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE SPE - Droit des sûretés et de la Transmission
+   - UE SPE - Due Diligence</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="n">
@@ -3282,6 +3417,12 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB25" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Espi Inside</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="n">
@@ -3395,6 +3536,13 @@
           <t>1h20</t>
         </is>
       </c>
+      <c r="AB26" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Espi Inside
+   - UE SPE - Gestion de Patrimoine</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="n">
@@ -3508,6 +3656,12 @@
           <t>45 minutes</t>
         </is>
       </c>
+      <c r="AB27" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Espi Inside</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="13" t="n">
@@ -3621,6 +3775,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB28" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="n">
@@ -3734,6 +3893,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AB29" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="13" t="n">
@@ -3847,6 +4011,12 @@
           <t>2h50</t>
         </is>
       </c>
+      <c r="AB30" s="15" t="inlineStr">
+        <is>
+          <t>SEMESTRE NON VALIDÉ :
+   - UE4 - Espi Inside</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="n">
@@ -3958,6 +4128,11 @@
       <c r="AA31" s="12" t="inlineStr">
         <is>
           <t>00h00</t>
+        </is>
+      </c>
+      <c r="AB31" s="12" t="inlineStr">
+        <is>
+          <t>SEMESTRE VALIDÉ</t>
         </is>
       </c>
     </row>
@@ -3989,6 +4164,7 @@
       <c r="Y32" s="15" t="n"/>
       <c r="Z32" s="14" t="n"/>
       <c r="AA32" s="15" t="n"/>
+      <c r="AB32" s="15" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 A4:C5 A7:C7">
